--- a/models/models.xlsx
+++ b/models/models.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8235"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -110,24 +110,15 @@
     <t>Seems to imitate the baseline agent well, but gets confused when attacking. This is probably, because the agent can't differenciate properly if it is attacking or defening</t>
   </si>
   <si>
-    <t>-1 if action is STOP. Changes the reward depending on if the agent recovered food from the rival, or if it returned food.</t>
-  </si>
-  <si>
     <t>Learns to defend, but not to attack</t>
   </si>
   <si>
-    <t>random_actions_differenciates_pacman</t>
-  </si>
-  <si>
     <t>-0.5 is action is STOP. Changes the reward depending on if the agent recovered food from the rival. 2*number of returned food. -food lost if the agent was eaten. Score changes</t>
   </si>
   <si>
     <t>Took 65149.9921788</t>
   </si>
   <si>
-    <t>baseline_actions_differenciates_pacman2</t>
-  </si>
-  <si>
     <t>Took 49159.3473346</t>
   </si>
   <si>
@@ -135,6 +126,51 @@
   </si>
   <si>
     <t>Learns to defend on both sides. Doesn't attack</t>
+  </si>
+  <si>
+    <t>random_actions_distinguishes_pacman</t>
+  </si>
+  <si>
+    <t>baseline_actions_distinguishes_pacman2</t>
+  </si>
+  <si>
+    <t>random_actions_only_score</t>
+  </si>
+  <si>
+    <t>baseline_actions_only_score</t>
+  </si>
+  <si>
+    <t>Score change. +n for n returned food</t>
+  </si>
+  <si>
+    <t>Took 56900.1227956</t>
+  </si>
+  <si>
+    <t>Took 63154.4934079</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>A baseline</t>
+  </si>
+  <si>
+    <t>A random</t>
+  </si>
+  <si>
+    <t>B random</t>
+  </si>
+  <si>
+    <t>B baseline</t>
+  </si>
+  <si>
+    <t>C random</t>
+  </si>
+  <si>
+    <t>C baseline</t>
+  </si>
+  <si>
+    <t>-0.5 if action is STOP. Changes the reward depending on if the agent recovered food from the rival, or if it returned food.</t>
   </si>
 </sst>
 </file>
@@ -189,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -214,6 +250,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,242 +531,304 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="39.5703125" customWidth="1"/>
-    <col min="5" max="5" width="62.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="65.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="55.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="39.5703125" customWidth="1"/>
+    <col min="6" max="6" width="62.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>1000000</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>1000000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>1500000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>1500000</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>1500000</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="G8" s="11">
         <v>1500000</v>
       </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10">
         <v>1500000</v>
       </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="H10" t="s">
         <v>30</v>
       </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="13" t="s">
+    </row>
+    <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11">
+        <v>1500000</v>
+      </c>
+      <c r="H11" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13">
         <v>1500000</v>
       </c>
-      <c r="G10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11">
+      <c r="H13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14">
         <v>1500000</v>
       </c>
-      <c r="G11" t="s">
-        <v>34</v>
+      <c r="H14" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/models/models.xlsx
+++ b/models/models.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8235"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Agents" sheetId="1" r:id="rId1"/>
+    <sheet name="Results" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="64">
   <si>
     <t>Name</t>
   </si>
@@ -171,13 +172,58 @@
   </si>
   <si>
     <t>-0.5 if action is STOP. Changes the reward depending on if the agent recovered food from the rival, or if it returned food.</t>
+  </si>
+  <si>
+    <t>Agent</t>
+  </si>
+  <si>
+    <t>Draws</t>
+  </si>
+  <si>
+    <t>Loses</t>
+  </si>
+  <si>
+    <t>Wins</t>
+  </si>
+  <si>
+    <t>Average Score</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>% Loses</t>
+  </si>
+  <si>
+    <t>% Draws</t>
+  </si>
+  <si>
+    <t>% Wins</t>
+  </si>
+  <si>
+    <t>BLUE</t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t>rrrrrandom</t>
+  </si>
+  <si>
+    <t>Took 42910.2727565</t>
+  </si>
+  <si>
+    <t>AAAAAA</t>
+  </si>
+  <si>
+    <t>Actions from baselineTeam agents</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,13 +250,26 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -222,10 +281,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -251,9 +311,26 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -531,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,7 +626,7 @@
     <col min="8" max="8" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>41</v>
       </c>
@@ -572,7 +649,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>13</v>
       </c>
@@ -592,7 +669,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
@@ -612,7 +689,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
@@ -632,7 +709,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
@@ -655,7 +732,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>17</v>
       </c>
@@ -678,11 +755,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>42</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -703,8 +780,11 @@
       <c r="H7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>81719.006372599993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -729,11 +809,17 @@
       <c r="H8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>61034.827115499997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>65149.992178799999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -758,8 +844,11 @@
       <c r="H10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>49159.347334600003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -784,8 +873,16 @@
       <c r="H11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>63154.493407900001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>56900.1227956</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -807,8 +904,12 @@
       <c r="H13" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J13" s="4">
+        <f>AVERAGE(J7:J12)/60/60</f>
+        <v>17.459156907638885</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -829,10 +930,736 @@
       </c>
       <c r="H14" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="15">
+        <v>-14.06</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0</v>
+      </c>
+      <c r="D3" s="15">
+        <v>11</v>
+      </c>
+      <c r="E3" s="15">
+        <v>39</v>
+      </c>
+      <c r="F3" s="16">
+        <f t="shared" ref="F3:H8" si="0">C3/50</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="16">
+        <f t="shared" si="0"/>
+        <v>0.22</v>
+      </c>
+      <c r="H3" s="16">
+        <f t="shared" si="0"/>
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="19">
+        <v>-0.36</v>
+      </c>
+      <c r="C4" s="19">
+        <v>0</v>
+      </c>
+      <c r="D4" s="19">
+        <v>49</v>
+      </c>
+      <c r="E4" s="19">
+        <v>1</v>
+      </c>
+      <c r="F4" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="20">
+        <f t="shared" si="0"/>
+        <v>0.98</v>
+      </c>
+      <c r="H4" s="20">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="15">
+        <v>0</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0</v>
+      </c>
+      <c r="D5" s="15">
+        <v>50</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0</v>
+      </c>
+      <c r="F5" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H5" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="19">
+        <v>0</v>
+      </c>
+      <c r="C6" s="19">
+        <v>0</v>
+      </c>
+      <c r="D6" s="19">
+        <v>50</v>
+      </c>
+      <c r="E6" s="19">
+        <v>0</v>
+      </c>
+      <c r="F6" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H6" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="19">
+        <v>0</v>
+      </c>
+      <c r="C7" s="19">
+        <v>0</v>
+      </c>
+      <c r="D7" s="19">
+        <v>50</v>
+      </c>
+      <c r="E7" s="19">
+        <v>0</v>
+      </c>
+      <c r="F7" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H7" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="19">
+        <v>-18</v>
+      </c>
+      <c r="C8" s="19">
+        <v>0</v>
+      </c>
+      <c r="D8" s="19">
+        <v>0</v>
+      </c>
+      <c r="E8" s="19">
+        <v>50</v>
+      </c>
+      <c r="F8" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="19">
+        <v>-7.92</v>
+      </c>
+      <c r="C12" s="19">
+        <v>0</v>
+      </c>
+      <c r="D12" s="19">
+        <f>50-22</f>
+        <v>28</v>
+      </c>
+      <c r="E12" s="19">
+        <v>22</v>
+      </c>
+      <c r="F12" s="20">
+        <f t="shared" ref="F12:H17" si="1">C12/50</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="20">
+        <f t="shared" si="1"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H12" s="20">
+        <f t="shared" si="1"/>
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="15">
+        <v>-18</v>
+      </c>
+      <c r="C13" s="15">
+        <v>0</v>
+      </c>
+      <c r="D13" s="15">
+        <v>0</v>
+      </c>
+      <c r="E13" s="15">
+        <v>50</v>
+      </c>
+      <c r="F13" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="19">
+        <v>0.08</v>
+      </c>
+      <c r="C14" s="19">
+        <v>4</v>
+      </c>
+      <c r="D14" s="19">
+        <v>46</v>
+      </c>
+      <c r="E14" s="19">
+        <v>0</v>
+      </c>
+      <c r="F14" s="20">
+        <f t="shared" si="1"/>
+        <v>0.08</v>
+      </c>
+      <c r="G14" s="20">
+        <f t="shared" si="1"/>
+        <v>0.92</v>
+      </c>
+      <c r="H14" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="15">
+        <v>-17.64</v>
+      </c>
+      <c r="C15" s="15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="15">
+        <v>49</v>
+      </c>
+      <c r="F15" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="16">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="H15" s="16">
+        <f t="shared" si="1"/>
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="15">
+        <v>-5.4</v>
+      </c>
+      <c r="C16" s="15">
+        <v>0</v>
+      </c>
+      <c r="D16" s="15">
+        <v>35</v>
+      </c>
+      <c r="E16" s="15">
+        <v>15</v>
+      </c>
+      <c r="F16" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="16">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="H16" s="16">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="19">
+        <v>-18</v>
+      </c>
+      <c r="C17" s="19">
+        <v>0</v>
+      </c>
+      <c r="D17" s="19">
+        <v>0</v>
+      </c>
+      <c r="E17" s="19">
+        <v>50</v>
+      </c>
+      <c r="F17" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="15">
+        <f t="shared" ref="B21:B26" si="2">AVERAGE(B12,B3)</f>
+        <v>-10.99</v>
+      </c>
+      <c r="C21" s="15">
+        <f t="shared" ref="C21:E26" si="3">C3+C12</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="15">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="E21" s="15">
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="F21" s="16">
+        <f t="shared" ref="F21:H26" si="4">C21/100</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="16">
+        <f t="shared" si="4"/>
+        <v>0.39</v>
+      </c>
+      <c r="H21" s="16">
+        <f t="shared" si="4"/>
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="15">
+        <f t="shared" si="2"/>
+        <v>-9.18</v>
+      </c>
+      <c r="C22" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="15">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="E22" s="15">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="F22" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="16">
+        <f t="shared" si="4"/>
+        <v>0.49</v>
+      </c>
+      <c r="H22" s="16">
+        <f t="shared" si="4"/>
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="15">
+        <f t="shared" si="2"/>
+        <v>0.04</v>
+      </c>
+      <c r="C23" s="15">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="D23" s="15">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="E23" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="16">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
+      </c>
+      <c r="G23" s="16">
+        <f t="shared" si="4"/>
+        <v>0.96</v>
+      </c>
+      <c r="H23" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="15">
+        <f t="shared" si="2"/>
+        <v>-8.82</v>
+      </c>
+      <c r="C24" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="15">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="E24" s="15">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="F24" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="16">
+        <f t="shared" si="4"/>
+        <v>0.51</v>
+      </c>
+      <c r="H24" s="16">
+        <f t="shared" si="4"/>
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="15">
+        <f t="shared" si="2"/>
+        <v>-2.7</v>
+      </c>
+      <c r="C25" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="15">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="E25" s="15">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="F25" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="16">
+        <f t="shared" si="4"/>
+        <v>0.85</v>
+      </c>
+      <c r="H25" s="16">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="15">
+        <f t="shared" si="2"/>
+        <v>-18</v>
+      </c>
+      <c r="C26" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="15">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="F26" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="16">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>